--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_6_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_6_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.20182174202588</v>
+        <v>15363.16252666309</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.20182174202588</v>
+        <v>15363.16252666309</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61791.70340090956</v>
+        <v>4503752.999434203</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61791.70340090956</v>
+        <v>4503752.999434203</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609768235.526245</v>
+        <v>61964404.68620646</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14642.41932987582</v>
+        <v>1424139.48060518</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28696.50113130363</v>
+        <v>2746485.372954404</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42750.58293273142</v>
+        <v>4068831.26530363</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>59585.58776494434</v>
+        <v>5173857.813650654</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75164.37814577365</v>
+        <v>6410599.96182094</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90743.16852660298</v>
+        <v>7647342.109991223</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>106325.7601195535</v>
+        <v>8884178.81331302</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>121909.420185445</v>
+        <v>10120959.35914165</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>138767.9774365669</v>
+        <v>11223955.12239666</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>154307.6705114014</v>
+        <v>12465688.32561494</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>169847.3635862358</v>
+        <v>13707421.52883322</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>185387.0566610703</v>
+        <v>14949154.73205151</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>200926.7497359048</v>
+        <v>16190887.9352698</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>217301.8836513605</v>
+        <v>17342722.27005924</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>237294.3190094475</v>
+        <v>18045452.99130771</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>134</v>
@@ -27052,13 +27052,13 @@
         <v>79</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>54</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
